--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Files\IntelliJ IDEA Projects\MIT4201Assignment_03\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D339DD50-39FA-47C7-809C-CF8CBCB88C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D2C64-D1F9-411E-A560-9EB0E634125F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,18 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Samsung Selected</t>
+    <t>iPhone Selected</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>iphone 15 pro max</t>
   </si>
   <si>
     <t>Apple is the phone</t>
+  </si>
+  <si>
+    <t>Samsung Selected</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.5703125"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="71.85546875"/>
     <col min="3" max="3" customWidth="true" width="26.28515625"/>
   </cols>
   <sheetData>
@@ -377,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Files\IntelliJ IDEA Projects\MIT4201Assignment_03\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D2C64-D1F9-411E-A560-9EB0E634125F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4CACE-A887-47BA-98A9-19B862927463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,10 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>iPhone Selected</t>
+    <t>Tatami Mattress</t>
   </si>
   <si>
-    <t>iphone 15 pro max</t>
+    <t xml:space="preserve"> Mattress Selected</t>
   </si>
   <si>
     <t>Apple is the phone</t>
@@ -362,13 +362,13 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="71.85546875"/>
+    <col min="2" max="2" customWidth="true" width="31.140625"/>
     <col min="3" max="3" customWidth="true" width="26.28515625"/>
   </cols>
   <sheetData>
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>

--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Brand</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Samsung Selected</t>
+  </si>
+  <si>
+    <t>First Product Selected</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
